--- a/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,96</t>
+          <t>2,04; 8,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 17,89</t>
+          <t>8,9; 18,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,7</t>
+          <t>3,54; 10,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,63</t>
+          <t>2,55; 9,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 18,08</t>
+          <t>9,08; 18,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,24</t>
+          <t>1,87; 5,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,38</t>
+          <t>2,97; 7,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10,28; 16,49</t>
+          <t>9,95; 16,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,99</t>
+          <t>3,04; 6,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 14,62</t>
+          <t>8,31; 14,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 22,95</t>
+          <t>14,72; 22,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 8,01</t>
+          <t>3,26; 8,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 11,58</t>
+          <t>4,34; 11,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,33</t>
+          <t>6,88; 12,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,35; 15,61</t>
+          <t>9,31; 15,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,55</t>
+          <t>2,94; 7,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,38</t>
+          <t>3,57; 7,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,44; 12,87</t>
+          <t>8,26; 12,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,86; 17,83</t>
+          <t>12,94; 18,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,79</t>
+          <t>3,7; 6,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,09</t>
+          <t>4,44; 8,32</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 10,65</t>
+          <t>3,91; 10,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 19,71</t>
+          <t>11,76; 20,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,42; 11,37</t>
+          <t>5,16; 11,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 8,4</t>
+          <t>3,73; 8,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,22</t>
+          <t>2,99; 8,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 18,8</t>
+          <t>10,73; 18,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 11,89</t>
+          <t>6,03; 12,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,99</t>
+          <t>2,96; 6,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,1</t>
+          <t>3,92; 7,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,19</t>
+          <t>12,12; 17,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,63</t>
+          <t>6,39; 10,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 6,85</t>
+          <t>3,84; 6,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,43</t>
+          <t>4,29; 10,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,39</t>
+          <t>10,59; 16,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 15,2</t>
+          <t>7,79; 14,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,92</t>
+          <t>1,7; 7,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,77</t>
+          <t>2,85; 8,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 14,17</t>
+          <t>8,82; 14,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,3</t>
+          <t>5,79; 11,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,84</t>
+          <t>1,36; 3,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,24</t>
+          <t>4,21; 7,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 14,43</t>
+          <t>10,33; 14,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,38</t>
+          <t>7,55; 12,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,83</t>
+          <t>1,87; 4,83</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 11,08</t>
+          <t>3,63; 11,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 19,39</t>
+          <t>9,51; 19,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,52</t>
+          <t>3,85; 13,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,54</t>
+          <t>3,98; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,12</t>
+          <t>4,37; 12,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,23; 17,92</t>
+          <t>8,34; 17,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 19,07</t>
+          <t>7,65; 18,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,57</t>
+          <t>3,69; 7,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 10,34</t>
+          <t>4,74; 10,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,87</t>
+          <t>9,73; 16,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,17; 15,0</t>
+          <t>7,21; 14,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,61</t>
+          <t>4,35; 7,57</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,55</t>
+          <t>3,07; 11,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 20,17</t>
+          <t>10,83; 19,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,49</t>
+          <t>6,55; 15,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,66; 8,84</t>
+          <t>3,65; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,89</t>
+          <t>2,29; 8,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,61; 18,85</t>
+          <t>10,06; 18,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,6</t>
+          <t>4,63; 11,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,24</t>
+          <t>3,81; 8,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,98</t>
+          <t>3,01; 7,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,51; 17,69</t>
+          <t>11,59; 18,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,65</t>
+          <t>6,29; 11,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,82</t>
+          <t>4,16; 7,48</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,12</t>
+          <t>5,31; 10,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,1; 14,7</t>
+          <t>9,4; 14,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,6</t>
+          <t>5,99; 11,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,7</t>
+          <t>3,87; 8,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,0</t>
+          <t>4,58; 8,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,5</t>
+          <t>7,01; 11,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,33</t>
+          <t>6,67; 12,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,5</t>
+          <t>2,8; 6,59</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,69</t>
+          <t>5,42; 8,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,35</t>
+          <t>8,69; 12,43</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,95; 10,88</t>
+          <t>7,01; 11,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 6,87</t>
+          <t>3,65; 6,67</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,14</t>
+          <t>4,07; 8,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,09; 13,37</t>
+          <t>8,27; 13,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,81; 13,14</t>
+          <t>8,0; 13,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,96; 39,84</t>
+          <t>15,01; 37,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,33</t>
+          <t>5,48; 10,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 10,78</t>
+          <t>6,69; 11,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,27; 11,7</t>
+          <t>7,26; 12,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 13,28</t>
+          <t>8,4; 13,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,44; 8,52</t>
+          <t>5,29; 8,4</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,39</t>
+          <t>7,89; 11,4</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 11,48</t>
+          <t>8,29; 11,61</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,4; 25,08</t>
+          <t>12,33; 25,2</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,31</t>
+          <t>6,15; 8,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,34; 15,04</t>
+          <t>12,29; 14,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,37</t>
+          <t>8,14; 10,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,99; 16,0</t>
+          <t>7,86; 14,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,82; 7,76</t>
+          <t>5,91; 7,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,93; 12,19</t>
+          <t>9,87; 12,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,89</t>
+          <t>7,69; 9,97</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>5,08; 6,81</t>
+          <t>5,03; 6,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,69</t>
+          <t>6,24; 7,65</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,38; 13,16</t>
+          <t>11,37; 13,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,31; 9,88</t>
+          <t>8,33; 9,93</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,52</t>
+          <t>6,64; 10,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,73</t>
+          <t>1,99; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,9; 18,48</t>
+          <t>9,24; 17,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 9,27</t>
+          <t>2,51; 8,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,08; 18,25</t>
+          <t>9,02; 17,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,09</t>
+          <t>3,02; 7,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 16,38</t>
+          <t>10,06; 16,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,58</t>
+          <t>7,8; 14,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,72; 22,95</t>
+          <t>14,89; 23,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,28</t>
+          <t>3,35; 7,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 12,37</t>
+          <t>7,08; 12,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,79</t>
+          <t>9,35; 15,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 7,3</t>
+          <t>2,96; 7,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 12,58</t>
+          <t>8,29; 12,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,94; 18,09</t>
+          <t>12,95; 18,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,93</t>
+          <t>3,58; 6,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 10,56</t>
+          <t>4,2; 10,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,76; 20,22</t>
+          <t>11,41; 20,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,69</t>
+          <t>5,59; 11,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 8,04</t>
+          <t>3,04; 8,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 18,97</t>
+          <t>10,6; 18,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,01</t>
+          <t>5,73; 11,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,81</t>
+          <t>4,15; 8,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 17,73</t>
+          <t>12,14; 18,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,39; 10,56</t>
+          <t>6,33; 10,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,28</t>
+          <t>4,39; 11,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,32</t>
+          <t>10,56; 16,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 14,7</t>
+          <t>7,69; 14,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 8,17</t>
+          <t>2,89; 7,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,1</t>
+          <t>8,78; 13,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 11,97</t>
+          <t>5,57; 11,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,94</t>
+          <t>4,1; 7,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,33; 14,38</t>
+          <t>10,29; 14,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,15</t>
+          <t>7,64; 12,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 11,79</t>
+          <t>3,36; 10,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 19,02</t>
+          <t>9,31; 19,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 13,41</t>
+          <t>3,95; 14,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,86</t>
+          <t>4,02; 13,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,63</t>
+          <t>8,29; 17,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,91</t>
+          <t>8,03; 20,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,42</t>
+          <t>4,73; 10,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 16,59</t>
+          <t>10,02; 16,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 14,58</t>
+          <t>7,11; 14,17</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,23</t>
+          <t>3,09; 10,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 19,98</t>
+          <t>10,98; 20,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,06</t>
+          <t>6,47; 14,62</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,29; 8,08</t>
+          <t>2,05; 8,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,06; 18,34</t>
+          <t>10,24; 18,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,79</t>
+          <t>4,93; 11,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 7,65</t>
+          <t>3,26; 7,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,59; 18,03</t>
+          <t>11,47; 17,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,29; 11,56</t>
+          <t>6,53; 11,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,26</t>
+          <t>5,13; 10,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,74</t>
+          <t>9,23; 14,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 11,55</t>
+          <t>5,9; 11,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,89</t>
+          <t>4,63; 8,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,65</t>
+          <t>6,77; 11,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,25</t>
+          <t>6,65; 12,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,42; 8,87</t>
+          <t>5,41; 8,66</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 12,43</t>
+          <t>8,63; 12,35</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,11</t>
+          <t>7,0; 10,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,24</t>
+          <t>4,24; 8,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,66</t>
+          <t>8,04; 13,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,0; 13,08</t>
+          <t>7,88; 13,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,23</t>
+          <t>5,77; 10,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,11</t>
+          <t>6,39; 10,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,26; 12,07</t>
+          <t>7,5; 12,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,4</t>
+          <t>5,45; 8,56</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,4</t>
+          <t>7,83; 11,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>8,29; 11,61</t>
+          <t>8,25; 11,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,35</t>
+          <t>6,21; 8,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>12,29; 14,91</t>
+          <t>12,32; 15,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8,14; 10,29</t>
+          <t>8,21; 10,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,81</t>
+          <t>5,84; 7,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,87; 12,21</t>
+          <t>9,91; 12,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,69; 9,97</t>
+          <t>7,86; 10,1</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,65</t>
+          <t>6,33; 7,73</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,05</t>
+          <t>11,35; 13,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,93</t>
+          <t>8,24; 9,77</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
